--- a/hardware/LamdaShifter_2_0SMT_BOM.xlsx
+++ b/hardware/LamdaShifter_2_0SMT_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\PlatformIO\Projects\Lambda Shifter OTA\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G8785\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD273B-152A-4513-A761-B1F0C26E2AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1048B20-58EF-4EDD-B4CF-9F284293E85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Item #</t>
   </si>
@@ -294,6 +294,57 @@
   <si>
     <t>https://akizukidenshi.com/catalog/g/gP-11868/</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Below are the components needed to connect the device to the car body.</t>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">22swg wiring cable </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black/Red/White/Yellow/Blue/Green
+Blue and Green are for map switching options.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuse Box/Fuse  1A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet terminal male</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spare parts included.</t>
+  </si>
+  <si>
+    <t>Bullet terminal female</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electro-tap</t>
+  </si>
+  <si>
+    <t>Power supply and O2 sensor gray connection.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-type terminals</t>
+  </si>
+  <si>
+    <t>For GND connection.</t>
+  </si>
+  <si>
+    <t>Flat terminals 250 type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>For map switching option</t>
   </si>
 </sst>
 </file>
@@ -461,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,9 +536,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,10 +556,52 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
@@ -813,27 +903,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A18" sqref="A18:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -842,7 +932,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -887,16 +977,16 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -912,18 +1002,18 @@
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -933,55 +1023,55 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>2012</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -991,53 +1081,53 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3">
@@ -1045,18 +1135,18 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>3216</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1068,18 +1158,18 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>3216</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1091,18 +1181,18 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>3216</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1111,11 +1201,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="15"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1123,12 +1213,12 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="9"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1137,11 +1227,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1150,11 +1240,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="15"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1162,13 +1252,216 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="17" customFormat="1" ht="41.4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19">
+        <v>10</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>4</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="19">
+        <v>10</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>5</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>7</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="19">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>8</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>9</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>10</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1188,7 +1481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,7 +1495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
